--- a/Shablon/TDS2014C.xlsx
+++ b/Shablon/TDS2014C.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="329">
   <si>
     <t>50 нс/дел</t>
   </si>
@@ -1216,32 +1216,6 @@
   </si>
   <si>
     <t>ti4_22</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Протокол периодической поверки № </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10/27-12-2023/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <t>± 0,205 мс</t>
@@ -1786,7 +1760,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1849,7 +1823,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1906,9 +1879,99 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1921,107 +1984,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2360,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A130" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2376,34 +2349,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="79" t="str">
+        <f>"Протокол поверки № 10/"&amp;C161&amp;"/"&amp;C6</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -2416,10 +2388,10 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="13" t="s">
         <v>82</v>
       </c>
@@ -2432,10 +2404,10 @@
       <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="17" t="s">
         <v>85</v>
       </c>
@@ -2446,38 +2418,38 @@
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50">
+      <c r="B7" s="45"/>
+      <c r="C7" s="77">
         <v>2012</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="51" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="17" t="s">
         <v>89</v>
       </c>
@@ -2488,52 +2460,52 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="61" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="74"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="48" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
     </row>
     <row r="14" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -2553,104 +2525,104 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="45" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="55" t="s">
+      <c r="F16" s="75"/>
+      <c r="G16" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="55"/>
+      <c r="H16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="56" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="47" t="s">
+      <c r="F17" s="70"/>
+      <c r="G17" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="H17" s="66"/>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="70"/>
+      <c r="G18" s="66" t="s">
         <v>298</v>
       </c>
-      <c r="H17" s="47"/>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="47" t="s">
+      <c r="H18" s="66"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="H18" s="47"/>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="47" t="s">
+      <c r="H19" s="66"/>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="66" t="s">
         <v>300</v>
       </c>
-      <c r="H19" s="47"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="47" t="s">
+      <c r="H20" s="66"/>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="H20" s="47"/>
-    </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="H21" s="47"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="40"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -2693,24 +2665,24 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2725,7 +2697,7 @@
       <c r="F28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="29" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2736,20 +2708,20 @@
       <c r="B29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="58" t="s">
-        <v>303</v>
+      <c r="G29" s="65" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2759,19 +2731,19 @@
       <c r="B30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="60"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -2780,20 +2752,20 @@
       <c r="B31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="58" t="s">
-        <v>304</v>
+      <c r="G31" s="65" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2803,19 +2775,19 @@
       <c r="B32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="59"/>
+      <c r="G32" s="43"/>
     </row>
     <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -2824,19 +2796,19 @@
       <c r="B33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="G33" s="59"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -2845,19 +2817,19 @@
       <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="59"/>
+      <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -2866,19 +2838,19 @@
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="59"/>
+      <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -2887,19 +2859,19 @@
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="G36" s="59"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -2908,19 +2880,19 @@
       <c r="B37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="G37" s="59"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -2929,19 +2901,19 @@
       <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G38" s="59"/>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -2950,33 +2922,33 @@
       <c r="B39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="G39" s="60"/>
+      <c r="G39" s="44"/>
     </row>
     <row r="40" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2991,1359 +2963,1359 @@
       <c r="E42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
+      <c r="A43" s="23">
         <v>5</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="F43" s="59" t="s">
+      <c r="F43" s="43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
+        <v>10</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" s="43"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24">
+        <v>20</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="43"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
+        <v>50</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="43"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="24">
+        <v>100</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F47" s="43"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="25">
+        <v>200</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="F48" s="43"/>
+    </row>
+    <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="25">
+        <v>500</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" s="43"/>
+    </row>
+    <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="25">
+        <v>1000</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" s="43"/>
+    </row>
+    <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
+        <v>2000</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" s="43"/>
+    </row>
+    <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
+        <v>5000</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="44"/>
+    </row>
+    <row r="53" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D53" s="32" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
-        <v>10</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="F44" s="59"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25">
-        <v>20</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="59"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25">
-        <v>50</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="F46" s="59"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25">
-        <v>100</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="F47" s="59"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26">
-        <v>200</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="F48" s="59"/>
-    </row>
-    <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26">
-        <v>500</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E49" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="F49" s="59"/>
-    </row>
-    <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
-        <v>1000</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="F50" s="59"/>
-    </row>
-    <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
-        <v>2000</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="F51" s="59"/>
-    </row>
-    <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="24">
-        <v>5000</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="F52" s="60"/>
-    </row>
-    <row r="53" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="33" t="s">
+      <c r="E53" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="D53" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="H53" s="30" t="s">
+      <c r="H53" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="47">
+      <c r="A54" s="66">
         <v>1</v>
       </c>
       <c r="B54" s="4">
         <v>5</v>
       </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
       <c r="G54" s="9" t="e">
         <f>20*LOG10((E54/F54)/(C54/D54))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H54" s="47" t="s">
-        <v>304</v>
+      <c r="H54" s="66" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
+      <c r="A55" s="66"/>
       <c r="B55" s="4">
         <v>10</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
       <c r="G55" s="9" t="e">
         <f t="shared" ref="G55:G93" si="0">20*LOG10((E55/F55)/(C55/D55))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="47"/>
+      <c r="H55" s="66"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="4">
         <v>20</v>
       </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
       <c r="G56" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="47"/>
+      <c r="H56" s="66"/>
     </row>
     <row r="57" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="47"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="4">
         <v>50</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
       <c r="G57" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="47"/>
+      <c r="H57" s="66"/>
     </row>
     <row r="58" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="4">
         <v>100</v>
       </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
       <c r="G58" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="47"/>
+      <c r="H58" s="66"/>
     </row>
     <row r="59" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
+      <c r="A59" s="66"/>
       <c r="B59" s="4">
         <v>200</v>
       </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
       <c r="G59" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="47"/>
+      <c r="H59" s="66"/>
     </row>
     <row r="60" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
+      <c r="A60" s="66"/>
       <c r="B60" s="4">
         <v>500</v>
       </c>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
       <c r="G60" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="47"/>
+      <c r="H60" s="66"/>
     </row>
     <row r="61" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
+      <c r="A61" s="66"/>
       <c r="B61" s="4">
         <v>1000</v>
       </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
       <c r="E61" s="9"/>
       <c r="F61" s="10"/>
       <c r="G61" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="47"/>
+      <c r="H61" s="66"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
+      <c r="A62" s="66"/>
       <c r="B62" s="4">
         <v>2000</v>
       </c>
       <c r="C62" s="9"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
       <c r="F62" s="10"/>
       <c r="G62" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="47"/>
+      <c r="H62" s="66"/>
     </row>
     <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="4">
         <v>5000</v>
       </c>
       <c r="C63" s="10"/>
-      <c r="D63" s="35"/>
+      <c r="D63" s="34"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="47"/>
+      <c r="H63" s="66"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="47">
+      <c r="A64" s="66">
         <v>2</v>
       </c>
       <c r="B64" s="4">
         <v>5</v>
       </c>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
       <c r="G64" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="47"/>
+      <c r="H64" s="66"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="4">
         <v>10</v>
       </c>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
       <c r="G65" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H65" s="47"/>
+      <c r="H65" s="66"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="4">
         <v>20</v>
       </c>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
       <c r="G66" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H66" s="47"/>
+      <c r="H66" s="66"/>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="47"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="4">
         <v>50</v>
       </c>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
       <c r="G67" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H67" s="47"/>
+      <c r="H67" s="66"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="4">
         <v>100</v>
       </c>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
       <c r="G68" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H68" s="47"/>
+      <c r="H68" s="66"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="47"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="4">
         <v>200</v>
       </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
       <c r="G69" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H69" s="47"/>
+      <c r="H69" s="66"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="47"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="4">
         <v>500</v>
       </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="29"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="28"/>
       <c r="G70" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="47"/>
+      <c r="H70" s="66"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="47"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="4">
         <v>1000</v>
       </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
       <c r="F71" s="11"/>
       <c r="G71" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="47"/>
+      <c r="H71" s="66"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="47"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="4">
         <v>2000</v>
       </c>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
       <c r="F72" s="11"/>
       <c r="G72" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="47"/>
+      <c r="H72" s="66"/>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="47"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="4">
         <v>5000</v>
       </c>
       <c r="C73" s="10"/>
-      <c r="D73" s="35"/>
+      <c r="D73" s="34"/>
       <c r="E73" s="10"/>
       <c r="F73" s="11"/>
       <c r="G73" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="47"/>
+      <c r="H73" s="66"/>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="47">
+      <c r="A74" s="66">
         <v>3</v>
       </c>
       <c r="B74" s="4">
         <v>5</v>
       </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
       <c r="G74" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="47"/>
+      <c r="H74" s="66"/>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="47"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="4">
         <v>10</v>
       </c>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
       <c r="G75" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H75" s="47"/>
+      <c r="H75" s="66"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="47"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="4">
         <v>20</v>
       </c>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
       <c r="G76" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="47"/>
+      <c r="H76" s="66"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="47"/>
+      <c r="A77" s="66"/>
       <c r="B77" s="4">
         <v>50</v>
       </c>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
       <c r="G77" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H77" s="47"/>
+      <c r="H77" s="66"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="4">
         <v>100</v>
       </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
       <c r="G78" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H78" s="47"/>
+      <c r="H78" s="66"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="47"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="4">
         <v>200</v>
       </c>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
       <c r="G79" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H79" s="47"/>
+      <c r="H79" s="66"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="4">
         <v>500</v>
       </c>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
       <c r="G80" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H80" s="47"/>
+      <c r="H80" s="66"/>
     </row>
     <row r="81" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="47"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="4">
         <v>1000</v>
       </c>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
       <c r="G81" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H81" s="47"/>
+      <c r="H81" s="66"/>
     </row>
     <row r="82" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="47"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="4">
         <v>2000</v>
       </c>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
       <c r="G82" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H82" s="47"/>
+      <c r="H82" s="66"/>
     </row>
     <row r="83" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="47"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="4">
         <v>5000</v>
       </c>
       <c r="C83" s="10"/>
-      <c r="D83" s="35"/>
+      <c r="D83" s="34"/>
       <c r="E83" s="12"/>
-      <c r="F83" s="35"/>
+      <c r="F83" s="34"/>
       <c r="G83" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H83" s="47"/>
+      <c r="H83" s="66"/>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="47">
+      <c r="A84" s="66">
         <v>4</v>
       </c>
       <c r="B84" s="4">
         <v>5</v>
       </c>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
       <c r="G84" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H84" s="47"/>
+      <c r="H84" s="66"/>
     </row>
     <row r="85" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="47"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="4">
         <v>10</v>
       </c>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
       <c r="G85" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H85" s="47"/>
+      <c r="H85" s="66"/>
     </row>
     <row r="86" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="47"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="4">
         <v>20</v>
       </c>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
       <c r="G86" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H86" s="47"/>
+      <c r="H86" s="66"/>
     </row>
     <row r="87" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="47"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="4">
         <v>50</v>
       </c>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
       <c r="G87" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="47"/>
+      <c r="H87" s="66"/>
     </row>
     <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="47"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="4">
         <v>100</v>
       </c>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
       <c r="G88" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H88" s="47"/>
+      <c r="H88" s="66"/>
     </row>
     <row r="89" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="47"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="4">
         <v>200</v>
       </c>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
       <c r="G89" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H89" s="47"/>
+      <c r="H89" s="66"/>
     </row>
     <row r="90" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="47"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="4">
         <v>500</v>
       </c>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
       <c r="F90" s="11"/>
       <c r="G90" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H90" s="47"/>
+      <c r="H90" s="66"/>
     </row>
     <row r="91" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="47"/>
+      <c r="A91" s="66"/>
       <c r="B91" s="4">
         <v>1000</v>
       </c>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
       <c r="G91" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H91" s="47"/>
+      <c r="H91" s="66"/>
     </row>
     <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="47"/>
+      <c r="A92" s="66"/>
       <c r="B92" s="4">
         <v>2000</v>
       </c>
       <c r="C92" s="9"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
       <c r="G92" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H92" s="47"/>
+      <c r="H92" s="66"/>
     </row>
     <row r="93" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="47"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="4">
         <v>5000</v>
       </c>
       <c r="C93" s="10"/>
-      <c r="D93" s="35"/>
+      <c r="D93" s="34"/>
       <c r="E93" s="10"/>
-      <c r="F93" s="35"/>
+      <c r="F93" s="34"/>
       <c r="G93" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H93" s="47"/>
+      <c r="H93" s="66"/>
     </row>
     <row r="94" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
     </row>
     <row r="95" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="41" t="s">
+      <c r="A95" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
     </row>
     <row r="96" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
     </row>
     <row r="97" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="41" t="s">
+      <c r="A97" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="40"/>
     </row>
     <row r="98" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="28"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
     </row>
     <row r="99" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="30" t="s">
+      <c r="A99" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="33" t="s">
+      <c r="B99" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C99" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="C99" s="33" t="s">
+      <c r="D99" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="D99" s="33" t="s">
+      <c r="E99" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="E99" s="33" t="s">
+      <c r="F99" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="F99" s="33" t="s">
+    </row>
+    <row r="100" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" s="29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="F106" s="29" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B100" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="E100" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B101" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C101" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="D101" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E101" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="F101" s="30" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B102" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C102" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="D102" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E102" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="F102" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B103" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C103" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="D103" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="E103" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="F103" s="30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B104" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="D104" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="E104" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="F104" s="30" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B105" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="D105" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C106" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="E106" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="F106" s="30" t="s">
+    <row r="107" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="F107" s="29" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B107" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C107" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="D107" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="E107" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F107" s="30" t="s">
+    <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="F108" s="29" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B108" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C108" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="E108" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="F108" s="30" t="s">
+    <row r="109" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="D109" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="F109" s="32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F110" s="29" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="C109" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="D109" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="E109" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="F109" s="33" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B110" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C110" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="E110" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="F110" s="30" t="s">
+    <row r="111" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F111" s="29" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B111" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C111" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D111" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E111" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="F111" s="30" t="s">
+    <row r="112" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F112" s="29" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B112" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C112" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="D112" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E112" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="F112" s="30" t="s">
+    <row r="113" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D113" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="E113" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F113" s="29" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B113" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C113" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="D113" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="E113" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="F113" s="30" t="s">
+    <row r="114" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="F114" s="29" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B114" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="C114" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="D114" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="E114" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="F114" s="30" t="s">
+    <row r="115" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D115" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="F115" s="29" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B115" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C115" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="D115" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="E115" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="F115" s="30" t="s">
+    <row r="116" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="F116" s="29" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B116" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="C116" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="D116" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="E116" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="F116" s="30" t="s">
+    <row r="117" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F117" s="29" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B117" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="C117" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="D117" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E117" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F117" s="30" t="s">
+    <row r="118" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F118" s="29" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B118" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="C118" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="D118" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="E118" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="F118" s="30" t="s">
+    <row r="119" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="F120" s="29" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="D119" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="E119" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="F119" s="30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B120" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="C120" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="D120" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="E120" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="F120" s="30" t="s">
+    <row r="121" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F121" s="29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B121" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="C121" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="D121" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="E121" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="F121" s="30" t="s">
+    <row r="122" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="F122" s="29" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B122" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="C122" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="D122" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="E122" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="F122" s="30" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4354,13 +4326,13 @@
       <c r="E123" s="6"/>
     </row>
     <row r="124" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="40" t="s">
+      <c r="A124" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B124" s="40"/>
-      <c r="C124" s="40"/>
-      <c r="D124" s="40"/>
-      <c r="E124" s="40"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="39"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="39"/>
     </row>
     <row r="125" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
@@ -4370,463 +4342,463 @@
       <c r="E125" s="6"/>
     </row>
     <row r="126" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="30" t="s">
+      <c r="A126" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="33" t="s">
+      <c r="B126" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C126" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="C126" s="33" t="s">
+      <c r="D126" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="D126" s="33" t="s">
+      <c r="E126" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="E126" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="F126" s="33" t="s">
-        <v>325</v>
+      <c r="F126" s="32" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="30" t="s">
+      <c r="A127" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B127" s="27" t="s">
+      <c r="B127" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C127" s="27" t="s">
+      <c r="C127" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="D127" s="27" t="s">
+      <c r="D127" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="E127" s="27" t="s">
+      <c r="E127" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="F127" s="30" t="s">
+      <c r="F127" s="29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B128" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E128" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="F128" s="29" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B128" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="D128" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E128" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="F128" s="30" t="s">
+    <row r="129" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F129" s="29" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B129" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C129" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="D129" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E129" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="F129" s="30" t="s">
+    <row r="130" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B130" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D130" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="F130" s="29" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B130" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C130" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="D130" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="E130" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="F130" s="30" t="s">
+    <row r="131" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F131" s="29" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B131" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="C131" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="D131" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="E131" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="F131" s="30" t="s">
+    <row r="132" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E132" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F132" s="29" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B132" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C132" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="D132" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="E132" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="F132" s="30" t="s">
+    <row r="133" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="F133" s="29" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B133" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C133" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D133" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="E133" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="F133" s="30" t="s">
+    <row r="134" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="F134" s="29" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B134" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C134" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="D134" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="E134" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F134" s="30" t="s">
+    <row r="135" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B135" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C135" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D135" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="F135" s="29" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B135" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C135" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="D135" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="E135" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="F135" s="30" t="s">
+    <row r="136" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C136" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D136" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F136" s="29" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B136" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="D136" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="E136" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="F136" s="30" t="s">
+    <row r="137" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B137" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C137" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D137" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F137" s="29" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B137" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C137" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D137" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E137" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="F137" s="30" t="s">
+    <row r="138" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B138" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C138" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D138" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F138" s="29" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B138" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C138" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="D138" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E138" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="F138" s="30" t="s">
+    <row r="139" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C139" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D139" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="E139" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F139" s="29" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B139" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C139" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="D139" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="E139" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="F139" s="30" t="s">
+    <row r="140" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B140" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C140" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D140" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="E140" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="F140" s="29" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B140" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="C140" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="D140" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="E140" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="F140" s="30" t="s">
+    <row r="141" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="F141" s="29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B141" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C141" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="D141" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="E141" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="F141" s="30" t="s">
+    <row r="142" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B142" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C142" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D142" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E142" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="F142" s="29" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B142" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="C142" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="D142" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="E142" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="F142" s="30" t="s">
+    <row r="143" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B143" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D143" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="E143" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F143" s="29" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B143" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="C143" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="D143" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E143" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F143" s="30" t="s">
+    <row r="144" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F144" s="29" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B144" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="C144" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="D144" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="E144" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="F144" s="30" t="s">
+    <row r="145" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="F145" s="29" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C145" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="D145" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="E145" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="F145" s="30" t="s">
+    <row r="146" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="F146" s="29" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B146" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="C146" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="D146" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="E146" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="F146" s="30" t="s">
+    <row r="147" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B147" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F147" s="29" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B147" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="C147" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="D147" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="E147" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="F147" s="30" t="s">
+    <row r="148" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B148" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E148" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="F148" s="29" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B148" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="C148" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="D148" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="E148" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="F148" s="30" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4837,16 +4809,16 @@
       <c r="E149" s="6"/>
     </row>
     <row r="150" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="40" t="s">
+      <c r="A150" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B150" s="40"/>
-      <c r="C150" s="40"/>
-      <c r="D150" s="40"/>
-      <c r="E150" s="40"/>
-      <c r="F150" s="40"/>
-      <c r="G150" s="40"/>
-      <c r="H150" s="40"/>
+      <c r="B150" s="39"/>
+      <c r="C150" s="39"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="39"/>
+      <c r="F150" s="39"/>
+      <c r="G150" s="39"/>
+      <c r="H150" s="39"/>
     </row>
     <row r="151" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
@@ -4856,32 +4828,32 @@
       <c r="E151" s="6"/>
     </row>
     <row r="152" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="30" t="s">
+      <c r="A152" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B152" s="30" t="s">
+      <c r="B152" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C152" s="30" t="s">
+      <c r="C152" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D152" s="30" t="s">
+      <c r="D152" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E152" s="33" t="s">
+      <c r="E152" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F152" s="33" t="s">
+      <c r="F152" s="32" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="35"/>
-      <c r="B153" s="35"/>
-      <c r="C153" s="35"/>
-      <c r="D153" s="35"/>
-      <c r="E153" s="35"/>
-      <c r="F153" s="30" t="s">
+      <c r="A153" s="34"/>
+      <c r="B153" s="34"/>
+      <c r="C153" s="34"/>
+      <c r="D153" s="34"/>
+      <c r="E153" s="34"/>
+      <c r="F153" s="29" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4893,7 +4865,7 @@
       <c r="E154" s="6"/>
     </row>
     <row r="155" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="32" t="s">
+      <c r="A155" s="31" t="s">
         <v>76</v>
       </c>
       <c r="B155" s="6"/>
@@ -4908,32 +4880,58 @@
     </row>
     <row r="158" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="159" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="53" t="s">
+      <c r="A159" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="B159" s="53"/>
-      <c r="C159" s="22" t="s">
+      <c r="B159" s="68"/>
+      <c r="C159" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D159" s="54" t="s">
+      <c r="D159" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="E159" s="54"/>
-      <c r="F159" s="23" t="s">
+      <c r="E159" s="42"/>
+      <c r="F159" s="22" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="161" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B161" s="31" t="s">
+      <c r="B161" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C161" s="54" t="s">
+      <c r="C161" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="D161" s="54"/>
+      <c r="D161" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="H54:H93"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="G31:G39"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="C161:D161"/>
     <mergeCell ref="F43:F52"/>
     <mergeCell ref="A9:B9"/>
@@ -4949,32 +4947,6 @@
     <mergeCell ref="A74:A83"/>
     <mergeCell ref="A84:A93"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="H54:H93"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="G31:G39"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.39370078740157483" bottom="0.77083333333333337" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Shablon/TDS2014C.xlsx
+++ b/Shablon/TDS2014C.xlsx
@@ -9,19 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="489">
   <si>
     <t>50 нс/дел</t>
   </si>
@@ -910,18 +908,6 @@
     <t>tr4_9</t>
   </si>
   <si>
-    <t>tr1_10</t>
-  </si>
-  <si>
-    <t>tr2_10</t>
-  </si>
-  <si>
-    <t>tr3_10</t>
-  </si>
-  <si>
-    <t>tr4_10</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1 Внешний осмотр (п. 8.1): </t>
     </r>
@@ -1462,14 +1448,505 @@
       <t>, дБ</t>
     </r>
   </si>
+  <si>
+    <t>uout5_1_1</t>
+  </si>
+  <si>
+    <t>uin5_1_1</t>
+  </si>
+  <si>
+    <t>uoutgr1_1</t>
+  </si>
+  <si>
+    <t>uingr1_1</t>
+  </si>
+  <si>
+    <t>uout5_1_2</t>
+  </si>
+  <si>
+    <t>uin5_1_2</t>
+  </si>
+  <si>
+    <t>uoutgr1_2</t>
+  </si>
+  <si>
+    <t>uingr1_2</t>
+  </si>
+  <si>
+    <t>uout5_1_3</t>
+  </si>
+  <si>
+    <t>uin5_1_3</t>
+  </si>
+  <si>
+    <t>uoutgr1_3</t>
+  </si>
+  <si>
+    <t>uingr1_3</t>
+  </si>
+  <si>
+    <t>uout5_1_4</t>
+  </si>
+  <si>
+    <t>uin5_1_4</t>
+  </si>
+  <si>
+    <t>uoutgr1_4</t>
+  </si>
+  <si>
+    <t>uingr1_4</t>
+  </si>
+  <si>
+    <t>uout5_1_5</t>
+  </si>
+  <si>
+    <t>uin5_1_5</t>
+  </si>
+  <si>
+    <t>uoutgr1_5</t>
+  </si>
+  <si>
+    <t>uingr1_5</t>
+  </si>
+  <si>
+    <t>uout5_1_6</t>
+  </si>
+  <si>
+    <t>uin5_1_6</t>
+  </si>
+  <si>
+    <t>uoutgr1_6</t>
+  </si>
+  <si>
+    <t>uingr1_6</t>
+  </si>
+  <si>
+    <t>uout5_1_7</t>
+  </si>
+  <si>
+    <t>uin5_1_7</t>
+  </si>
+  <si>
+    <t>uoutgr1_7</t>
+  </si>
+  <si>
+    <t>uingr1_7</t>
+  </si>
+  <si>
+    <t>uout5_1_8</t>
+  </si>
+  <si>
+    <t>uin5_1_8</t>
+  </si>
+  <si>
+    <t>uoutgr1_8</t>
+  </si>
+  <si>
+    <t>uingr1_8</t>
+  </si>
+  <si>
+    <t>uout5_1_9</t>
+  </si>
+  <si>
+    <t>uin5_1_9</t>
+  </si>
+  <si>
+    <t>uoutgr1_9</t>
+  </si>
+  <si>
+    <t>uingr1_9</t>
+  </si>
+  <si>
+    <t>uout5_1_0</t>
+  </si>
+  <si>
+    <t>uin5_1_0</t>
+  </si>
+  <si>
+    <t>uoutgr1_0</t>
+  </si>
+  <si>
+    <t>uingr1_0</t>
+  </si>
+  <si>
+    <t>uout5_2_0</t>
+  </si>
+  <si>
+    <t>uin5_2_0</t>
+  </si>
+  <si>
+    <t>uoutgr2_0</t>
+  </si>
+  <si>
+    <t>uingr2_0</t>
+  </si>
+  <si>
+    <t>uout5_2_1</t>
+  </si>
+  <si>
+    <t>uin5_2_1</t>
+  </si>
+  <si>
+    <t>uoutgr2_1</t>
+  </si>
+  <si>
+    <t>uingr2_1</t>
+  </si>
+  <si>
+    <t>uout5_2_2</t>
+  </si>
+  <si>
+    <t>uin5_2_2</t>
+  </si>
+  <si>
+    <t>uoutgr2_2</t>
+  </si>
+  <si>
+    <t>uingr2_2</t>
+  </si>
+  <si>
+    <t>uout5_2_3</t>
+  </si>
+  <si>
+    <t>uin5_2_3</t>
+  </si>
+  <si>
+    <t>uoutgr2_3</t>
+  </si>
+  <si>
+    <t>uingr2_3</t>
+  </si>
+  <si>
+    <t>uout5_2_4</t>
+  </si>
+  <si>
+    <t>uin5_2_4</t>
+  </si>
+  <si>
+    <t>uoutgr2_4</t>
+  </si>
+  <si>
+    <t>uingr2_4</t>
+  </si>
+  <si>
+    <t>uout5_2_5</t>
+  </si>
+  <si>
+    <t>uin5_2_5</t>
+  </si>
+  <si>
+    <t>uoutgr2_5</t>
+  </si>
+  <si>
+    <t>uingr2_5</t>
+  </si>
+  <si>
+    <t>uout5_2_6</t>
+  </si>
+  <si>
+    <t>uin5_2_6</t>
+  </si>
+  <si>
+    <t>uoutgr2_6</t>
+  </si>
+  <si>
+    <t>uingr2_6</t>
+  </si>
+  <si>
+    <t>uout5_2_7</t>
+  </si>
+  <si>
+    <t>uin5_2_7</t>
+  </si>
+  <si>
+    <t>uoutgr2_7</t>
+  </si>
+  <si>
+    <t>uingr2_7</t>
+  </si>
+  <si>
+    <t>uout5_2_8</t>
+  </si>
+  <si>
+    <t>uin5_2_8</t>
+  </si>
+  <si>
+    <t>uoutgr2_8</t>
+  </si>
+  <si>
+    <t>uingr2_8</t>
+  </si>
+  <si>
+    <t>uout5_2_9</t>
+  </si>
+  <si>
+    <t>uin5_2_9</t>
+  </si>
+  <si>
+    <t>uoutgr2_9</t>
+  </si>
+  <si>
+    <t>uingr2_9</t>
+  </si>
+  <si>
+    <t>uout5_3_0</t>
+  </si>
+  <si>
+    <t>uin5_3_0</t>
+  </si>
+  <si>
+    <t>uoutgr3_0</t>
+  </si>
+  <si>
+    <t>uingr3_0</t>
+  </si>
+  <si>
+    <t>uout5_3_1</t>
+  </si>
+  <si>
+    <t>uin5_3_1</t>
+  </si>
+  <si>
+    <t>uoutgr3_1</t>
+  </si>
+  <si>
+    <t>uingr3_1</t>
+  </si>
+  <si>
+    <t>uout5_3_2</t>
+  </si>
+  <si>
+    <t>uin5_3_2</t>
+  </si>
+  <si>
+    <t>uoutgr3_2</t>
+  </si>
+  <si>
+    <t>uingr3_2</t>
+  </si>
+  <si>
+    <t>uout5_3_3</t>
+  </si>
+  <si>
+    <t>uin5_3_3</t>
+  </si>
+  <si>
+    <t>uoutgr3_3</t>
+  </si>
+  <si>
+    <t>uingr3_3</t>
+  </si>
+  <si>
+    <t>uout5_3_4</t>
+  </si>
+  <si>
+    <t>uin5_3_4</t>
+  </si>
+  <si>
+    <t>uoutgr3_4</t>
+  </si>
+  <si>
+    <t>uingr3_4</t>
+  </si>
+  <si>
+    <t>uout5_3_5</t>
+  </si>
+  <si>
+    <t>uin5_3_5</t>
+  </si>
+  <si>
+    <t>uoutgr3_5</t>
+  </si>
+  <si>
+    <t>uingr3_5</t>
+  </si>
+  <si>
+    <t>uout5_3_6</t>
+  </si>
+  <si>
+    <t>uin5_3_6</t>
+  </si>
+  <si>
+    <t>uoutgr3_6</t>
+  </si>
+  <si>
+    <t>uingr3_6</t>
+  </si>
+  <si>
+    <t>uout5_3_7</t>
+  </si>
+  <si>
+    <t>uin5_3_7</t>
+  </si>
+  <si>
+    <t>uoutgr3_7</t>
+  </si>
+  <si>
+    <t>uingr3_7</t>
+  </si>
+  <si>
+    <t>uout5_3_8</t>
+  </si>
+  <si>
+    <t>uin5_3_8</t>
+  </si>
+  <si>
+    <t>uoutgr3_8</t>
+  </si>
+  <si>
+    <t>uingr3_8</t>
+  </si>
+  <si>
+    <t>uout5_3_9</t>
+  </si>
+  <si>
+    <t>uin5_3_9</t>
+  </si>
+  <si>
+    <t>uoutgr3_9</t>
+  </si>
+  <si>
+    <t>uingr3_9</t>
+  </si>
+  <si>
+    <t>uout5_4_0</t>
+  </si>
+  <si>
+    <t>uin5_4_0</t>
+  </si>
+  <si>
+    <t>uoutgr4_0</t>
+  </si>
+  <si>
+    <t>uingr4_0</t>
+  </si>
+  <si>
+    <t>uout5_4_1</t>
+  </si>
+  <si>
+    <t>uin5_4_1</t>
+  </si>
+  <si>
+    <t>uoutgr4_1</t>
+  </si>
+  <si>
+    <t>uingr4_1</t>
+  </si>
+  <si>
+    <t>uout5_4_2</t>
+  </si>
+  <si>
+    <t>uin5_4_2</t>
+  </si>
+  <si>
+    <t>uoutgr4_2</t>
+  </si>
+  <si>
+    <t>uingr4_2</t>
+  </si>
+  <si>
+    <t>uout5_4_3</t>
+  </si>
+  <si>
+    <t>uin5_4_3</t>
+  </si>
+  <si>
+    <t>uoutgr4_3</t>
+  </si>
+  <si>
+    <t>uingr4_3</t>
+  </si>
+  <si>
+    <t>uout5_4_4</t>
+  </si>
+  <si>
+    <t>uin5_4_4</t>
+  </si>
+  <si>
+    <t>uoutgr4_4</t>
+  </si>
+  <si>
+    <t>uingr4_4</t>
+  </si>
+  <si>
+    <t>uout5_4_5</t>
+  </si>
+  <si>
+    <t>uin5_4_5</t>
+  </si>
+  <si>
+    <t>uoutgr4_5</t>
+  </si>
+  <si>
+    <t>uingr4_5</t>
+  </si>
+  <si>
+    <t>uout5_4_6</t>
+  </si>
+  <si>
+    <t>uin5_4_6</t>
+  </si>
+  <si>
+    <t>uoutgr4_6</t>
+  </si>
+  <si>
+    <t>uingr4_6</t>
+  </si>
+  <si>
+    <t>uout5_4_7</t>
+  </si>
+  <si>
+    <t>uin5_4_7</t>
+  </si>
+  <si>
+    <t>uoutgr4_7</t>
+  </si>
+  <si>
+    <t>uingr4_7</t>
+  </si>
+  <si>
+    <t>uout5_4_8</t>
+  </si>
+  <si>
+    <t>uin5_4_8</t>
+  </si>
+  <si>
+    <t>uoutgr4_8</t>
+  </si>
+  <si>
+    <t>uingr4_8</t>
+  </si>
+  <si>
+    <t>uout5_4_9</t>
+  </si>
+  <si>
+    <t>uin5_4_9</t>
+  </si>
+  <si>
+    <t>uoutgr4_9</t>
+  </si>
+  <si>
+    <t>uingr4_9</t>
+  </si>
+  <si>
+    <t>tr1_0</t>
+  </si>
+  <si>
+    <t>tr2_0</t>
+  </si>
+  <si>
+    <t>tr3_0</t>
+  </si>
+  <si>
+    <t>tr4_0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1760,7 +2237,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1785,15 +2262,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1842,9 +2310,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1882,17 +2347,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1951,50 +2462,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2303,38 +2772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A35" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2349,33 +2790,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="79" t="str">
+      <c r="A3" s="50" t="str">
         <f>"Протокол поверки № 10/"&amp;C161&amp;"/"&amp;C6</f>
         <v>Протокол поверки № 10/_date/_numb</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -2388,124 +2829,124 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="16"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="77">
+      <c r="B7" s="46"/>
+      <c r="C7" s="47">
         <v>2012</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="78" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="68"/>
+      <c r="C10" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="76" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -2525,104 +2966,104 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="74" t="s">
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="69" t="s">
+      <c r="F16" s="42"/>
+      <c r="G16" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="69"/>
+      <c r="H16" s="52"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="70" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="66" t="s">
+      <c r="F17" s="53"/>
+      <c r="G17" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="53"/>
+      <c r="G18" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="53"/>
+      <c r="G19" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="H17" s="66"/>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="66" t="s">
-        <v>298</v>
-      </c>
-      <c r="H18" s="66"/>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="70"/>
-      <c r="G19" s="66" t="s">
-        <v>299</v>
-      </c>
-      <c r="H19" s="66"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="66" t="s">
-        <v>300</v>
-      </c>
-      <c r="H20" s="66"/>
-    </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="66" t="s">
-        <v>301</v>
-      </c>
-      <c r="H21" s="66"/>
+      <c r="H21" s="43"/>
     </row>
     <row r="22" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="39"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -2648,7 +3089,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2657,7 +3098,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2665,24 +3106,24 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2697,7 +3138,7 @@
       <c r="F28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2708,20 +3149,20 @@
       <c r="B29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="65" t="s">
-        <v>302</v>
+      <c r="G29" s="54" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2731,19 +3172,19 @@
       <c r="B30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="44"/>
+      <c r="G30" s="56"/>
     </row>
     <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -2752,20 +3193,20 @@
       <c r="B31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="65" t="s">
-        <v>303</v>
+      <c r="G31" s="54" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2775,19 +3216,19 @@
       <c r="B32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="43"/>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -2796,19 +3237,19 @@
       <c r="B33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G33" s="43"/>
+      <c r="G33" s="55"/>
     </row>
     <row r="34" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -2817,19 +3258,19 @@
       <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="43"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -2838,19 +3279,19 @@
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="43"/>
+      <c r="G35" s="55"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -2859,19 +3300,19 @@
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="G36" s="43"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -2880,19 +3321,19 @@
       <c r="B37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="G37" s="43"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -2901,19 +3342,19 @@
       <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="G38" s="43"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -2922,33 +3363,33 @@
       <c r="B39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="G39" s="44"/>
+      <c r="G39" s="56"/>
     </row>
     <row r="40" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
     </row>
     <row r="42" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2963,1359 +3404,1679 @@
       <c r="E42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
+      <c r="A43" s="20">
         <v>5</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="F43" s="55" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
+        <v>10</v>
+      </c>
+      <c r="B44" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C44" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D44" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E44" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="F43" s="43" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23">
-        <v>10</v>
-      </c>
-      <c r="B44" s="33" t="s">
+      <c r="F44" s="55"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21">
+        <v>20</v>
+      </c>
+      <c r="B45" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C45" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D45" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="E45" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="F44" s="43"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
-        <v>20</v>
-      </c>
-      <c r="B45" s="33" t="s">
+      <c r="F45" s="55"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21">
+        <v>50</v>
+      </c>
+      <c r="B46" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C46" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D46" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="33" t="s">
+      <c r="E46" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="F45" s="43"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
-        <v>50</v>
-      </c>
-      <c r="B46" s="33" t="s">
+      <c r="F46" s="55"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
+        <v>100</v>
+      </c>
+      <c r="B47" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C47" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D47" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="E46" s="33" t="s">
+      <c r="E47" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="F46" s="43"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
-        <v>100</v>
-      </c>
-      <c r="B47" s="33" t="s">
+      <c r="F47" s="55"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22">
+        <v>200</v>
+      </c>
+      <c r="B48" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C48" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D48" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E48" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="43"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25">
-        <v>200</v>
-      </c>
-      <c r="B48" s="33" t="s">
+      <c r="F48" s="55"/>
+    </row>
+    <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22">
+        <v>500</v>
+      </c>
+      <c r="B49" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C49" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D49" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="E49" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="43"/>
-    </row>
-    <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25">
-        <v>500</v>
-      </c>
-      <c r="B49" s="33" t="s">
+      <c r="F49" s="55"/>
+    </row>
+    <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22">
+        <v>1000</v>
+      </c>
+      <c r="B50" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C50" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D50" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E50" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="F49" s="43"/>
-    </row>
-    <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25">
-        <v>1000</v>
-      </c>
-      <c r="B50" s="33" t="s">
+      <c r="F50" s="55"/>
+    </row>
+    <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20">
+        <v>2000</v>
+      </c>
+      <c r="B51" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C51" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D51" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E51" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="F50" s="43"/>
-    </row>
-    <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23">
-        <v>2000</v>
-      </c>
-      <c r="B51" s="33" t="s">
+      <c r="F51" s="55"/>
+    </row>
+    <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="20">
+        <v>5000</v>
+      </c>
+      <c r="B52" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C52" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D52" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="E51" s="33" t="s">
+      <c r="E52" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="F51" s="43"/>
-    </row>
-    <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23">
-        <v>5000</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="F52" s="44"/>
+      <c r="F52" s="56"/>
     </row>
     <row r="53" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="E53" s="32" t="s">
+      <c r="C53" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="E53" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G53" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="H53" s="29" t="s">
+      <c r="G53" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="H53" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="66">
+      <c r="A54" s="43">
         <v>1</v>
       </c>
       <c r="B54" s="4">
         <v>5</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
+      <c r="C54" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="G54" s="9" t="e">
         <f>20*LOG10((E54/F54)/(C54/D54))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H54" s="66" t="s">
-        <v>303</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H54" s="43" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="66"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="4">
         <v>10</v>
       </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
+      <c r="C55" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>328</v>
+      </c>
       <c r="G55" s="9" t="e">
         <f t="shared" ref="G55:G93" si="0">20*LOG10((E55/F55)/(C55/D55))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H55" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H55" s="43"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="66"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="4">
         <v>20</v>
       </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
+      <c r="C56" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>332</v>
+      </c>
       <c r="G56" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H56" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H56" s="43"/>
     </row>
     <row r="57" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="66"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="4">
         <v>50</v>
       </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
+      <c r="C57" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>336</v>
+      </c>
       <c r="G57" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H57" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H57" s="43"/>
     </row>
     <row r="58" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="66"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="4">
         <v>100</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
+      <c r="C58" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>340</v>
+      </c>
       <c r="G58" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H58" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" s="43"/>
     </row>
     <row r="59" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="66"/>
+      <c r="A59" s="43"/>
       <c r="B59" s="4">
         <v>200</v>
       </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
+      <c r="C59" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>344</v>
+      </c>
       <c r="G59" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H59" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H59" s="43"/>
     </row>
     <row r="60" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="66"/>
+      <c r="A60" s="43"/>
       <c r="B60" s="4">
         <v>500</v>
       </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
+      <c r="C60" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>348</v>
+      </c>
       <c r="G60" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H60" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" s="43"/>
     </row>
     <row r="61" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="66"/>
+      <c r="A61" s="43"/>
       <c r="B61" s="4">
         <v>1000</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="10"/>
+      <c r="C61" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>352</v>
+      </c>
       <c r="G61" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H61" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H61" s="43"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="66"/>
+      <c r="A62" s="43"/>
       <c r="B62" s="4">
         <v>2000</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="10"/>
+      <c r="C62" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>356</v>
+      </c>
       <c r="G62" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H62" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H62" s="43"/>
     </row>
     <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="66"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="4">
         <v>5000</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="C63" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>360</v>
+      </c>
       <c r="G63" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H63" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H63" s="43"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="66">
+      <c r="A64" s="43">
         <v>2</v>
       </c>
       <c r="B64" s="4">
         <v>5</v>
       </c>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
+      <c r="C64" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>368</v>
+      </c>
       <c r="G64" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H64" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H64" s="43"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="66"/>
+      <c r="A65" s="43"/>
       <c r="B65" s="4">
         <v>10</v>
       </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
+      <c r="C65" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>372</v>
+      </c>
       <c r="G65" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H65" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H65" s="43"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="66"/>
+      <c r="A66" s="43"/>
       <c r="B66" s="4">
         <v>20</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
+      <c r="C66" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>376</v>
+      </c>
       <c r="G66" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H66" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H66" s="43"/>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="66"/>
+      <c r="A67" s="43"/>
       <c r="B67" s="4">
         <v>50</v>
       </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
+      <c r="C67" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="G67" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H67" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H67" s="43"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="66"/>
+      <c r="A68" s="43"/>
       <c r="B68" s="4">
         <v>100</v>
       </c>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
+      <c r="C68" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>384</v>
+      </c>
       <c r="G68" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H68" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H68" s="43"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="66"/>
+      <c r="A69" s="43"/>
       <c r="B69" s="4">
         <v>200</v>
       </c>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
+      <c r="C69" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>388</v>
+      </c>
       <c r="G69" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H69" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H69" s="43"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="66"/>
+      <c r="A70" s="43"/>
       <c r="B70" s="4">
         <v>500</v>
       </c>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="28"/>
+      <c r="C70" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>392</v>
+      </c>
       <c r="G70" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H70" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H70" s="43"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="66"/>
+      <c r="A71" s="43"/>
       <c r="B71" s="4">
         <v>1000</v>
       </c>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="11"/>
+      <c r="C71" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>396</v>
+      </c>
       <c r="G71" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H71" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H71" s="43"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="66"/>
+      <c r="A72" s="43"/>
       <c r="B72" s="4">
         <v>2000</v>
       </c>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="11"/>
+      <c r="C72" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>400</v>
+      </c>
       <c r="G72" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H72" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H72" s="43"/>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="66"/>
+      <c r="A73" s="43"/>
       <c r="B73" s="4">
         <v>5000</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="11"/>
+      <c r="C73" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="G73" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H73" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H73" s="43"/>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="66">
+      <c r="A74" s="43">
         <v>3</v>
       </c>
       <c r="B74" s="4">
         <v>5</v>
       </c>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
+      <c r="C74" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>408</v>
+      </c>
       <c r="G74" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H74" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H74" s="43"/>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="66"/>
+      <c r="A75" s="43"/>
       <c r="B75" s="4">
         <v>10</v>
       </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
+      <c r="C75" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="G75" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H75" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H75" s="43"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="66"/>
+      <c r="A76" s="43"/>
       <c r="B76" s="4">
         <v>20</v>
       </c>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
+      <c r="C76" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>416</v>
+      </c>
       <c r="G76" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H76" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H76" s="43"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="66"/>
+      <c r="A77" s="43"/>
       <c r="B77" s="4">
         <v>50</v>
       </c>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
+      <c r="C77" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>420</v>
+      </c>
       <c r="G77" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H77" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H77" s="43"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="66"/>
+      <c r="A78" s="43"/>
       <c r="B78" s="4">
         <v>100</v>
       </c>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
+      <c r="C78" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>424</v>
+      </c>
       <c r="G78" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H78" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H78" s="43"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="66"/>
+      <c r="A79" s="43"/>
       <c r="B79" s="4">
         <v>200</v>
       </c>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
+      <c r="C79" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>428</v>
+      </c>
       <c r="G79" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H79" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H79" s="43"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="66"/>
+      <c r="A80" s="43"/>
       <c r="B80" s="4">
         <v>500</v>
       </c>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
+      <c r="C80" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>432</v>
+      </c>
       <c r="G80" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H80" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H80" s="43"/>
     </row>
     <row r="81" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="66"/>
+      <c r="A81" s="43"/>
       <c r="B81" s="4">
         <v>1000</v>
       </c>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
+      <c r="C81" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>436</v>
+      </c>
       <c r="G81" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H81" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H81" s="43"/>
     </row>
     <row r="82" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="66"/>
+      <c r="A82" s="43"/>
       <c r="B82" s="4">
         <v>2000</v>
       </c>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
+      <c r="C82" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>440</v>
+      </c>
       <c r="G82" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H82" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H82" s="43"/>
     </row>
     <row r="83" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="66"/>
+      <c r="A83" s="43"/>
       <c r="B83" s="4">
         <v>5000</v>
       </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="34"/>
+      <c r="C83" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>444</v>
+      </c>
       <c r="G83" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H83" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H83" s="43"/>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="66">
+      <c r="A84" s="43">
         <v>4</v>
       </c>
       <c r="B84" s="4">
         <v>5</v>
       </c>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
+      <c r="C84" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>448</v>
+      </c>
       <c r="G84" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H84" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H84" s="43"/>
     </row>
     <row r="85" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="66"/>
+      <c r="A85" s="43"/>
       <c r="B85" s="4">
         <v>10</v>
       </c>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
+      <c r="C85" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>452</v>
+      </c>
       <c r="G85" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H85" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H85" s="43"/>
     </row>
     <row r="86" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="66"/>
+      <c r="A86" s="43"/>
       <c r="B86" s="4">
         <v>20</v>
       </c>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
+      <c r="C86" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>456</v>
+      </c>
       <c r="G86" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H86" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H86" s="43"/>
     </row>
     <row r="87" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="66"/>
+      <c r="A87" s="43"/>
       <c r="B87" s="4">
         <v>50</v>
       </c>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
+      <c r="C87" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>460</v>
+      </c>
       <c r="G87" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H87" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H87" s="43"/>
     </row>
     <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="66"/>
+      <c r="A88" s="43"/>
       <c r="B88" s="4">
         <v>100</v>
       </c>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
+      <c r="C88" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>464</v>
+      </c>
       <c r="G88" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H88" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H88" s="43"/>
     </row>
     <row r="89" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="66"/>
+      <c r="A89" s="43"/>
       <c r="B89" s="4">
         <v>200</v>
       </c>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
+      <c r="C89" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>468</v>
+      </c>
       <c r="G89" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H89" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H89" s="43"/>
     </row>
     <row r="90" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="66"/>
+      <c r="A90" s="43"/>
       <c r="B90" s="4">
         <v>500</v>
       </c>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="11"/>
+      <c r="C90" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>472</v>
+      </c>
       <c r="G90" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H90" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H90" s="43"/>
     </row>
     <row r="91" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="66"/>
+      <c r="A91" s="43"/>
       <c r="B91" s="4">
         <v>1000</v>
       </c>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
+      <c r="C91" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>476</v>
+      </c>
       <c r="G91" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H91" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H91" s="43"/>
     </row>
     <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="66"/>
+      <c r="A92" s="43"/>
       <c r="B92" s="4">
         <v>2000</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
+      <c r="C92" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>480</v>
+      </c>
       <c r="G92" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H92" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H92" s="43"/>
     </row>
     <row r="93" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="66"/>
+      <c r="A93" s="43"/>
       <c r="B93" s="4">
         <v>5000</v>
       </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="34"/>
+      <c r="C93" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>484</v>
+      </c>
       <c r="G93" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H93" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H93" s="43"/>
     </row>
     <row r="94" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
     </row>
     <row r="95" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="40" t="s">
+      <c r="A95" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
     </row>
     <row r="96" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
     </row>
     <row r="97" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="40" t="s">
+      <c r="A97" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="40"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
     </row>
     <row r="98" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
+      <c r="A98" s="24"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
     </row>
     <row r="99" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="29" t="s">
+      <c r="A99" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="32" t="s">
+      <c r="B99" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F99" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="C99" s="32" t="s">
+    </row>
+    <row r="100" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" s="25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" s="25" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="D99" s="32" t="s">
+    </row>
+    <row r="107" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="F107" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="E99" s="32" t="s">
+    </row>
+    <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D108" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F108" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="F99" s="32" t="s">
+    </row>
+    <row r="109" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E109" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F109" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D110" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F110" s="25" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="D100" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F100" s="29" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="C101" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D101" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="E101" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="F101" s="29" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B102" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C102" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="D102" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="E102" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="F102" s="29" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B103" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="C103" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="E103" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="F103" s="29" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D104" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="F104" s="29" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="D105" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="E105" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="F105" s="29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C106" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D106" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E106" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="F106" s="29" t="s">
+    <row r="111" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F111" s="25" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C107" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="D107" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="E107" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="F107" s="29" t="s">
+    <row r="112" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="F112" s="25" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B108" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C108" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D108" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="E108" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="F108" s="29" t="s">
+    <row r="113" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D113" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="F113" s="25" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="C109" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="D109" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="E109" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="F109" s="32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B110" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C110" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="D110" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="E110" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="F110" s="29" t="s">
+    <row r="114" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D114" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="F114" s="25" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B111" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C111" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D111" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="E111" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="F111" s="29" t="s">
+    <row r="115" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F115" s="25" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B112" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="C112" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="D112" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="E112" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="F112" s="29" t="s">
+    <row r="116" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D116" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="F116" s="25" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B113" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C113" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="D113" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="E113" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F113" s="29" t="s">
+    <row r="117" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D117" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="F117" s="25" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B114" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="C114" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="D114" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="E114" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="F114" s="29" t="s">
+    <row r="118" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F118" s="25" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B115" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="C115" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="D115" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="E115" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="F115" s="29" t="s">
+    <row r="119" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F120" s="25" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B116" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C116" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="D116" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="E116" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="F116" s="29" t="s">
+    <row r="121" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="F121" s="25" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B117" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C117" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="D117" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="E117" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="F117" s="29" t="s">
+    <row r="122" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="F122" s="25" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B118" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="C118" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="D118" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="E118" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="F118" s="29" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="C119" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="D119" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="E119" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="F119" s="29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B120" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C120" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="D120" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="E120" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F120" s="29" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B121" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="D121" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="E121" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="F121" s="29" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B122" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="C122" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="D122" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="E122" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="F122" s="29" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4326,13 +5087,13 @@
       <c r="E123" s="6"/>
     </row>
     <row r="124" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="39" t="s">
+      <c r="A124" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="39"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="35"/>
     </row>
     <row r="125" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
@@ -4342,463 +5103,463 @@
       <c r="E125" s="6"/>
     </row>
     <row r="126" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="29" t="s">
+      <c r="A126" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="C126" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="D126" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="E126" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="F126" s="32" t="s">
-        <v>324</v>
+      <c r="B126" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C126" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E126" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F126" s="28" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="29" t="s">
+      <c r="A127" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B127" s="26" t="s">
+      <c r="B127" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F127" s="25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B128" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="C127" s="26" t="s">
+      <c r="C128" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="D127" s="26" t="s">
+      <c r="D128" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="E127" s="26" t="s">
+      <c r="E128" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="F127" s="29" t="s">
+      <c r="F128" s="25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D129" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D130" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E130" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E131" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F131" s="25" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B128" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="C128" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D128" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="E128" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="F128" s="29" t="s">
+    <row r="132" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F132" s="25" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B129" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C129" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="D129" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="E129" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="F129" s="29" t="s">
+    <row r="133" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E133" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F133" s="25" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B130" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="C130" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="D130" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="E130" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="F130" s="29" t="s">
+    <row r="134" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D134" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E134" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="F134" s="25" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B131" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C131" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D131" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="E131" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="F131" s="29" t="s">
+    <row r="135" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="E135" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F135" s="25" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B132" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="C132" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="D132" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="E132" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="F132" s="29" t="s">
+    <row r="136" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E136" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F136" s="25" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B133" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C133" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D133" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E133" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="F133" s="29" t="s">
+    <row r="137" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D137" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E137" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F137" s="25" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B134" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C134" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="D134" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="E134" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="F134" s="29" t="s">
+    <row r="138" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D138" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E138" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="F138" s="25" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B135" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C135" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D135" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="E135" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="F135" s="29" t="s">
+    <row r="139" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D139" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E139" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="F139" s="25" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B136" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C136" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="D136" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="E136" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="F136" s="29" t="s">
+    <row r="140" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C140" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D140" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E140" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="F140" s="25" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B137" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C137" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D137" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="E137" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="F137" s="29" t="s">
+    <row r="141" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="D141" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E141" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F141" s="25" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B138" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="C138" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="D138" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="E138" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="F138" s="29" t="s">
+    <row r="142" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C142" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D142" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E142" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="F142" s="25" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B139" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C139" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="D139" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="E139" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F139" s="29" t="s">
+    <row r="143" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C143" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D143" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E143" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="F143" s="25" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B140" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="C140" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="D140" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="E140" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="F140" s="29" t="s">
+    <row r="144" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D144" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="E144" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F144" s="25" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B141" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="C141" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="D141" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="E141" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="F141" s="29" t="s">
+    <row r="145" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D145" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E145" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="F145" s="25" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B142" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C142" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="D142" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="E142" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="F142" s="29" t="s">
+    <row r="146" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C146" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D146" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E146" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F146" s="25" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B143" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C143" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="D143" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="E143" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="F143" s="29" t="s">
+    <row r="147" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C147" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="D147" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E147" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="F147" s="25" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B144" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="C144" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="D144" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="E144" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="F144" s="29" t="s">
+    <row r="148" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C148" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="D148" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E148" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="F148" s="25" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="C145" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="D145" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="E145" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="F145" s="29" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B146" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C146" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="D146" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="E146" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F146" s="29" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B147" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="C147" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="D147" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="E147" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="F147" s="29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B148" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="C148" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="D148" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="E148" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="F148" s="29" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4809,16 +5570,16 @@
       <c r="E149" s="6"/>
     </row>
     <row r="150" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="39" t="s">
+      <c r="A150" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B150" s="39"/>
-      <c r="C150" s="39"/>
-      <c r="D150" s="39"/>
-      <c r="E150" s="39"/>
-      <c r="F150" s="39"/>
-      <c r="G150" s="39"/>
-      <c r="H150" s="39"/>
+      <c r="B150" s="35"/>
+      <c r="C150" s="35"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="35"/>
+      <c r="F150" s="35"/>
+      <c r="G150" s="35"/>
+      <c r="H150" s="35"/>
     </row>
     <row r="151" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
@@ -4828,32 +5589,32 @@
       <c r="E151" s="6"/>
     </row>
     <row r="152" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="29" t="s">
+      <c r="A152" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B152" s="29" t="s">
+      <c r="B152" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C152" s="29" t="s">
+      <c r="C152" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D152" s="29" t="s">
+      <c r="D152" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E152" s="32" t="s">
+      <c r="E152" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F152" s="32" t="s">
+      <c r="F152" s="28" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="34"/>
-      <c r="B153" s="34"/>
-      <c r="C153" s="34"/>
-      <c r="D153" s="34"/>
-      <c r="E153" s="34"/>
-      <c r="F153" s="29" t="s">
+      <c r="A153" s="30"/>
+      <c r="B153" s="30"/>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="25" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4865,7 +5626,7 @@
       <c r="E154" s="6"/>
     </row>
     <row r="155" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="31" t="s">
+      <c r="A155" s="27" t="s">
         <v>76</v>
       </c>
       <c r="B155" s="6"/>
@@ -4880,58 +5641,32 @@
     </row>
     <row r="158" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="159" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="68" t="s">
+      <c r="A159" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="B159" s="68"/>
-      <c r="C159" s="21" t="s">
+      <c r="B159" s="77"/>
+      <c r="C159" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D159" s="42" t="s">
+      <c r="D159" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="E159" s="42"/>
-      <c r="F159" s="22" t="s">
+      <c r="E159" s="51"/>
+      <c r="F159" s="19" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="161" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B161" s="30" t="s">
+      <c r="B161" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C161" s="42" t="s">
+      <c r="C161" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D161" s="42"/>
+      <c r="D161" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="H54:H93"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="G31:G39"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="C161:D161"/>
     <mergeCell ref="F43:F52"/>
     <mergeCell ref="A9:B9"/>
@@ -4947,6 +5682,32 @@
     <mergeCell ref="A74:A83"/>
     <mergeCell ref="A84:A93"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="H54:H93"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G31:G39"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A3:I3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.39370078740157483" bottom="0.77083333333333337" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Shablon/TDS2014C.xlsx
+++ b/Shablon/TDS2014C.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITL\MEASControl\Shablon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_doc\ITL\MEASControl\Shablon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -788,18 +788,6 @@
     <t>gdcv4_10</t>
   </si>
   <si>
-    <t>gdcv1_11</t>
-  </si>
-  <si>
-    <t>gdcv2_11</t>
-  </si>
-  <si>
-    <t>gdcv3_11</t>
-  </si>
-  <si>
-    <t>gdcv4_11</t>
-  </si>
-  <si>
     <t>tr1_1</t>
   </si>
   <si>
@@ -1192,18 +1180,6 @@
     <t>ti4_21</t>
   </si>
   <si>
-    <t>ti1_22</t>
-  </si>
-  <si>
-    <t>ti2_22</t>
-  </si>
-  <si>
-    <t>ti3_22</t>
-  </si>
-  <si>
-    <t>ti4_22</t>
-  </si>
-  <si>
     <t>± 0,205 мс</t>
   </si>
   <si>
@@ -1939,6 +1915,30 @@
   </si>
   <si>
     <t>tr4_0</t>
+  </si>
+  <si>
+    <t>gdcv1_0</t>
+  </si>
+  <si>
+    <t>gdcv2_0</t>
+  </si>
+  <si>
+    <t>gdcv3_0</t>
+  </si>
+  <si>
+    <t>gdcv4_0</t>
+  </si>
+  <si>
+    <t>ti1_0</t>
+  </si>
+  <si>
+    <t>ti2_0</t>
+  </si>
+  <si>
+    <t>ti3_0</t>
+  </si>
+  <si>
+    <t>ti4_0</t>
   </si>
 </sst>
 </file>
@@ -2237,7 +2237,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2351,6 +2351,99 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2360,18 +2453,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2383,87 +2467,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2774,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A35" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2790,32 +2793,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="str">
+      <c r="A3" s="78" t="str">
         <f>"Протокол поверки № 10/"&amp;C161&amp;"/"&amp;C6</f>
         <v>Протокол поверки № 10/_date/_numb</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
       <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2829,10 +2832,10 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="10" t="s">
         <v>82</v>
       </c>
@@ -2845,10 +2848,10 @@
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="14" t="s">
         <v>85</v>
       </c>
@@ -2859,38 +2862,38 @@
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47">
+      <c r="B7" s="44"/>
+      <c r="C7" s="75">
         <v>2012</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="32"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="14" t="s">
         <v>89</v>
       </c>
@@ -2901,52 +2904,52 @@
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="58" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="45" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -2966,96 +2969,96 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="41" t="s">
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="52" t="s">
+      <c r="F16" s="73"/>
+      <c r="G16" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="52"/>
+      <c r="H16" s="68"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="53" t="s">
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="H17" s="43"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="H17" s="65"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="53" t="s">
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="H18" s="43"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="H18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="53" t="s">
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="H19" s="43"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="H20" s="43"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="H20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="H21" s="43"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="H21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
@@ -3089,7 +3092,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3098,7 +3101,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3150,19 +3153,19 @@
         <v>18</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>101</v>
+        <v>481</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>102</v>
+        <v>482</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>103</v>
+        <v>483</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="54" t="s">
-        <v>298</v>
+        <v>484</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3172,19 +3175,19 @@
       <c r="B30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>105</v>
+      <c r="C30" s="40" t="s">
+        <v>101</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" s="56"/>
+        <v>104</v>
+      </c>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -3193,20 +3196,20 @@
       <c r="B31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="29" t="s">
-        <v>109</v>
+      <c r="C31" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>299</v>
+        <v>108</v>
+      </c>
+      <c r="G31" s="64" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3216,19 +3219,19 @@
       <c r="B32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>113</v>
+      <c r="C32" s="40" t="s">
+        <v>109</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="55"/>
+        <v>112</v>
+      </c>
+      <c r="G32" s="42"/>
     </row>
     <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -3237,19 +3240,19 @@
       <c r="B33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>117</v>
+      <c r="C33" s="40" t="s">
+        <v>113</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" s="55"/>
+        <v>116</v>
+      </c>
+      <c r="G33" s="42"/>
     </row>
     <row r="34" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -3258,19 +3261,19 @@
       <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>121</v>
+      <c r="C34" s="40" t="s">
+        <v>117</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" s="55"/>
+        <v>120</v>
+      </c>
+      <c r="G34" s="42"/>
     </row>
     <row r="35" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -3279,19 +3282,19 @@
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="29" t="s">
-        <v>125</v>
+      <c r="C35" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="55"/>
+        <v>124</v>
+      </c>
+      <c r="G35" s="42"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -3300,19 +3303,19 @@
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="29" t="s">
-        <v>129</v>
+      <c r="C36" s="40" t="s">
+        <v>125</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="G36" s="55"/>
+        <v>128</v>
+      </c>
+      <c r="G36" s="42"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -3321,19 +3324,19 @@
       <c r="B37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="29" t="s">
-        <v>133</v>
+      <c r="C37" s="40" t="s">
+        <v>129</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="G37" s="55"/>
+        <v>132</v>
+      </c>
+      <c r="G37" s="42"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -3342,19 +3345,19 @@
       <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="29" t="s">
-        <v>137</v>
+      <c r="C38" s="40" t="s">
+        <v>133</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" s="55"/>
+        <v>136</v>
+      </c>
+      <c r="G38" s="42"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -3363,19 +3366,19 @@
       <c r="B39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="29" t="s">
-        <v>141</v>
+      <c r="C39" s="40" t="s">
+        <v>137</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" s="56"/>
+        <v>140</v>
+      </c>
+      <c r="G39" s="43"/>
     </row>
     <row r="40" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3413,19 +3416,19 @@
         <v>5</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>488</v>
-      </c>
-      <c r="F43" s="55" t="s">
-        <v>321</v>
+        <v>480</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3433,162 +3436,162 @@
         <v>10</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="F44" s="55"/>
+        <v>144</v>
+      </c>
+      <c r="F44" s="42"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>20</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="F45" s="55"/>
+        <v>148</v>
+      </c>
+      <c r="F45" s="42"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>50</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="F46" s="55"/>
+        <v>152</v>
+      </c>
+      <c r="F46" s="42"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>100</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="F47" s="55"/>
+        <v>156</v>
+      </c>
+      <c r="F47" s="42"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>200</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="F48" s="55"/>
+        <v>160</v>
+      </c>
+      <c r="F48" s="42"/>
     </row>
     <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>500</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49" s="55"/>
+        <v>164</v>
+      </c>
+      <c r="F49" s="42"/>
     </row>
     <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>1000</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="F50" s="55"/>
+        <v>168</v>
+      </c>
+      <c r="F50" s="42"/>
     </row>
     <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>2000</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="F51" s="55"/>
+        <v>172</v>
+      </c>
+      <c r="F51" s="42"/>
     </row>
     <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>5000</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="F52" s="56"/>
+        <v>176</v>
+      </c>
+      <c r="F52" s="43"/>
     </row>
     <row r="53" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
@@ -3598,10 +3601,10 @@
         <v>16</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E53" s="28" t="s">
         <v>34</v>
@@ -3610,941 +3613,941 @@
         <v>35</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H53" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="43">
+      <c r="A54" s="65">
         <v>1</v>
       </c>
       <c r="B54" s="4">
         <v>5</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G54" s="9" t="e">
         <f>20*LOG10((E54/F54)/(C54/D54))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H54" s="43" t="s">
-        <v>299</v>
+      <c r="H54" s="65" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="43"/>
+      <c r="A55" s="65"/>
       <c r="B55" s="4">
         <v>10</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G55" s="9" t="e">
         <f t="shared" ref="G55:G93" si="0">20*LOG10((E55/F55)/(C55/D55))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H55" s="43"/>
+      <c r="H55" s="65"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="43"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="4">
         <v>20</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G56" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H56" s="43"/>
+      <c r="H56" s="65"/>
     </row>
     <row r="57" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="43"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="4">
         <v>50</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G57" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H57" s="43"/>
+      <c r="H57" s="65"/>
     </row>
     <row r="58" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="43"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="4">
         <v>100</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G58" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="43"/>
+      <c r="H58" s="65"/>
     </row>
     <row r="59" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="43"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="4">
         <v>200</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G59" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="43"/>
+      <c r="H59" s="65"/>
     </row>
     <row r="60" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="43"/>
+      <c r="A60" s="65"/>
       <c r="B60" s="4">
         <v>500</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G60" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H60" s="43"/>
+      <c r="H60" s="65"/>
     </row>
     <row r="61" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="43"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="4">
         <v>1000</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G61" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H61" s="43"/>
+      <c r="H61" s="65"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="43"/>
+      <c r="A62" s="65"/>
       <c r="B62" s="4">
         <v>2000</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G62" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H62" s="43"/>
+      <c r="H62" s="65"/>
     </row>
     <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="43"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="4">
         <v>5000</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G63" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H63" s="43"/>
+      <c r="H63" s="65"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="43">
+      <c r="A64" s="65">
         <v>2</v>
       </c>
       <c r="B64" s="4">
         <v>5</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G64" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H64" s="43"/>
+      <c r="H64" s="65"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="43"/>
+      <c r="A65" s="65"/>
       <c r="B65" s="4">
         <v>10</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G65" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H65" s="43"/>
+      <c r="H65" s="65"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="43"/>
+      <c r="A66" s="65"/>
       <c r="B66" s="4">
         <v>20</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G66" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H66" s="43"/>
+      <c r="H66" s="65"/>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="43"/>
+      <c r="A67" s="65"/>
       <c r="B67" s="4">
         <v>50</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G67" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H67" s="43"/>
+      <c r="H67" s="65"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="43"/>
+      <c r="A68" s="65"/>
       <c r="B68" s="4">
         <v>100</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G68" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H68" s="43"/>
+      <c r="H68" s="65"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="43"/>
+      <c r="A69" s="65"/>
       <c r="B69" s="4">
         <v>200</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G69" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H69" s="43"/>
+      <c r="H69" s="65"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="43"/>
+      <c r="A70" s="65"/>
       <c r="B70" s="4">
         <v>500</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G70" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H70" s="43"/>
+      <c r="H70" s="65"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="43"/>
+      <c r="A71" s="65"/>
       <c r="B71" s="4">
         <v>1000</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G71" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H71" s="43"/>
+      <c r="H71" s="65"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="43"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="4">
         <v>2000</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G72" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H72" s="43"/>
+      <c r="H72" s="65"/>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="43"/>
+      <c r="A73" s="65"/>
       <c r="B73" s="4">
         <v>5000</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G73" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H73" s="43"/>
+      <c r="H73" s="65"/>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="43">
+      <c r="A74" s="65">
         <v>3</v>
       </c>
       <c r="B74" s="4">
         <v>5</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G74" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H74" s="43"/>
+      <c r="H74" s="65"/>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="43"/>
+      <c r="A75" s="65"/>
       <c r="B75" s="4">
         <v>10</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G75" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H75" s="43"/>
+      <c r="H75" s="65"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="43"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="4">
         <v>20</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G76" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H76" s="43"/>
+      <c r="H76" s="65"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="43"/>
+      <c r="A77" s="65"/>
       <c r="B77" s="4">
         <v>50</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G77" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H77" s="43"/>
+      <c r="H77" s="65"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="43"/>
+      <c r="A78" s="65"/>
       <c r="B78" s="4">
         <v>100</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G78" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H78" s="43"/>
+      <c r="H78" s="65"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="43"/>
+      <c r="A79" s="65"/>
       <c r="B79" s="4">
         <v>200</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G79" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H79" s="43"/>
+      <c r="H79" s="65"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="43"/>
+      <c r="A80" s="65"/>
       <c r="B80" s="4">
         <v>500</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G80" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H80" s="43"/>
+      <c r="H80" s="65"/>
     </row>
     <row r="81" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="43"/>
+      <c r="A81" s="65"/>
       <c r="B81" s="4">
         <v>1000</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G81" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H81" s="43"/>
+      <c r="H81" s="65"/>
     </row>
     <row r="82" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="43"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="4">
         <v>2000</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G82" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H82" s="43"/>
+      <c r="H82" s="65"/>
     </row>
     <row r="83" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="43"/>
+      <c r="A83" s="65"/>
       <c r="B83" s="4">
         <v>5000</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G83" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H83" s="43"/>
+      <c r="H83" s="65"/>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="43">
+      <c r="A84" s="65">
         <v>4</v>
       </c>
       <c r="B84" s="4">
         <v>5</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G84" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H84" s="43"/>
+      <c r="H84" s="65"/>
     </row>
     <row r="85" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="43"/>
+      <c r="A85" s="65"/>
       <c r="B85" s="4">
         <v>10</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G85" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H85" s="43"/>
+      <c r="H85" s="65"/>
     </row>
     <row r="86" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="43"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="4">
         <v>20</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G86" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H86" s="43"/>
+      <c r="H86" s="65"/>
     </row>
     <row r="87" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="43"/>
+      <c r="A87" s="65"/>
       <c r="B87" s="4">
         <v>50</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G87" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H87" s="43"/>
+      <c r="H87" s="65"/>
     </row>
     <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="43"/>
+      <c r="A88" s="65"/>
       <c r="B88" s="4">
         <v>100</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G88" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H88" s="43"/>
+      <c r="H88" s="65"/>
     </row>
     <row r="89" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="43"/>
+      <c r="A89" s="65"/>
       <c r="B89" s="4">
         <v>200</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G89" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H89" s="43"/>
+      <c r="H89" s="65"/>
     </row>
     <row r="90" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="43"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="4">
         <v>500</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G90" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H90" s="43"/>
+      <c r="H90" s="65"/>
     </row>
     <row r="91" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="43"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="4">
         <v>1000</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G91" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H91" s="43"/>
+      <c r="H91" s="65"/>
     </row>
     <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="43"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="4">
         <v>2000</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G92" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H92" s="43"/>
+      <c r="H92" s="65"/>
     </row>
     <row r="93" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="43"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="4">
         <v>5000</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G93" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H93" s="43"/>
+      <c r="H93" s="65"/>
     </row>
     <row r="94" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="24"/>
@@ -4604,19 +4607,19 @@
         <v>3</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F99" s="28" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4624,19 +4627,19 @@
         <v>38</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>183</v>
+        <v>485</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>184</v>
+        <v>486</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>185</v>
+        <v>487</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>186</v>
+        <v>488</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4644,19 +4647,19 @@
         <v>39</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4664,19 +4667,19 @@
         <v>40</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4684,19 +4687,19 @@
         <v>68</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4704,19 +4707,19 @@
         <v>42</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F104" s="25" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4724,19 +4727,19 @@
         <v>43</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4744,19 +4747,19 @@
         <v>1</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4764,19 +4767,19 @@
         <v>44</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4784,19 +4787,19 @@
         <v>45</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4804,19 +4807,19 @@
         <v>3</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E109" s="28" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F109" s="28" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4824,19 +4827,19 @@
         <v>46</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E110" s="23" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F110" s="25" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4844,19 +4847,19 @@
         <v>54</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F111" s="25" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4864,19 +4867,19 @@
         <v>47</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4884,19 +4887,19 @@
         <v>48</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4904,19 +4907,19 @@
         <v>49</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E114" s="23" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F114" s="25" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4924,19 +4927,19 @@
         <v>50</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E115" s="23" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4944,19 +4947,19 @@
         <v>51</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E116" s="23" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F116" s="25" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4964,19 +4967,19 @@
         <v>52</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E117" s="23" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4984,19 +4987,19 @@
         <v>53</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E118" s="23" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F118" s="25" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5004,19 +5007,19 @@
         <v>0</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E119" s="23" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F119" s="25" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5024,19 +5027,19 @@
         <v>55</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E120" s="23" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F120" s="25" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5044,19 +5047,19 @@
         <v>56</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E121" s="23" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F121" s="25" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5064,19 +5067,19 @@
         <v>57</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E122" s="23" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5107,19 +5110,19 @@
         <v>3</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E126" s="28" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F126" s="28" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5127,19 +5130,19 @@
         <v>38</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>183</v>
+        <v>485</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>184</v>
+        <v>486</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>185</v>
+        <v>487</v>
       </c>
       <c r="E127" s="23" t="s">
-        <v>186</v>
+        <v>488</v>
       </c>
       <c r="F127" s="25" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5147,19 +5150,19 @@
         <v>39</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E128" s="23" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F128" s="25" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5167,19 +5170,19 @@
         <v>40</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F129" s="25" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5187,19 +5190,19 @@
         <v>41</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F130" s="25" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5207,19 +5210,19 @@
         <v>42</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E131" s="23" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F131" s="25" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5227,19 +5230,19 @@
         <v>43</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E132" s="23" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F132" s="25" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5247,19 +5250,19 @@
         <v>1</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E133" s="23" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F133" s="25" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5267,19 +5270,19 @@
         <v>44</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E134" s="23" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F134" s="25" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5287,19 +5290,19 @@
         <v>45</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E135" s="23" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F135" s="25" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5307,19 +5310,19 @@
         <v>46</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E136" s="23" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F136" s="25" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5327,19 +5330,19 @@
         <v>54</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E137" s="23" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F137" s="25" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5347,19 +5350,19 @@
         <v>47</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E138" s="23" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F138" s="25" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5367,19 +5370,19 @@
         <v>48</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E139" s="23" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F139" s="25" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5387,19 +5390,19 @@
         <v>49</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D140" s="23" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E140" s="23" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F140" s="25" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5407,19 +5410,19 @@
         <v>50</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D141" s="23" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E141" s="23" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F141" s="25" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5427,19 +5430,19 @@
         <v>51</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E142" s="23" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F142" s="25" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5447,19 +5450,19 @@
         <v>52</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E143" s="23" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F143" s="25" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5467,19 +5470,19 @@
         <v>53</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E144" s="23" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F144" s="25" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5487,19 +5490,19 @@
         <v>0</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E145" s="23" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F145" s="25" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5507,19 +5510,19 @@
         <v>55</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E146" s="23" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F146" s="25" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5527,19 +5530,19 @@
         <v>56</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E147" s="23" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5547,19 +5550,19 @@
         <v>57</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D148" s="23" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E148" s="23" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F148" s="25" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5641,17 +5644,17 @@
     </row>
     <row r="158" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="159" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="77" t="s">
+      <c r="A159" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="B159" s="77"/>
+      <c r="B159" s="67"/>
       <c r="C159" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D159" s="51" t="s">
+      <c r="D159" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E159" s="51"/>
+      <c r="E159" s="41"/>
       <c r="F159" s="19" t="s">
         <v>98</v>
       </c>
@@ -5660,13 +5663,38 @@
       <c r="B161" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C161" s="51" t="s">
+      <c r="C161" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="D161" s="51"/>
+      <c r="D161" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="H54:H93"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G31:G39"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="C161:D161"/>
     <mergeCell ref="F43:F52"/>
     <mergeCell ref="A9:B9"/>
@@ -5683,31 +5711,6 @@
     <mergeCell ref="A84:A93"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="A159:B159"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="H54:H93"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G31:G39"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A3:I3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.39370078740157483" bottom="0.77083333333333337" header="0.51181102362204722" footer="0.51181102362204722"/>
